--- a/biology/Mycologie/Capnodiales/Capnodiales.xlsx
+++ b/biology/Mycologie/Capnodiales/Capnodiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Capnodiales sont un ordre de champignons de la classe des Dothideomycetes.
 Cet ordre comprend notamment des espèces formant des hyphes sombres qui produisent des dépôts noirâtres sur les feuilles (taches de suies), souvent associées aux sécrétions sucrées de pucerons (cf. fumagine). 
@@ -514,9 +526,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 novembre 2014) :
 famille des Antennulariellaceae
 famille des Capnodiaceae
 famille des Cladosporiaceae
@@ -529,7 +543,7 @@
 famille des Piedraiaceae
 famille des Teratosphaeriaceae
 famille des Trichomeriaceae
-Selon ITIS      (26 novembre 2014)[1] :
+Selon ITIS      (26 novembre 2014) :
 famille Antennulariellaceae Woron., 1925
 famille Asterinaceae Hansf., 1946
 famille Capnodiaceae (Sacc.) Höhn. ex Theiss., 1916
@@ -568,9 +582,11 @@
           <t>Liste des familles, genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (26 novembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (26 novembre 2014) :
 famille Capnodiaceae
 genre Antennariella
 Antennariella californica
